--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_008_6mar2023.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_008_6mar2023.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{E1B0A48F-5574-4EAC-9817-6EBCBF671C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E6F928-C298-4A1C-8C7F-95F9D0D701E7}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{E1B0A48F-5574-4EAC-9817-6EBCBF671C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DFCD36-5273-4C39-8893-F84CBA5256C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A47BAD56-C5B9-4DD8-84B8-98190F628795}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -444,7 +444,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,30 +452,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -483,289 +469,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -779,21 +493,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59010602-ADFF-4AB5-AB70-E6A745B48B47}" name="Table2" displayName="Table2" ref="A1:I38" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I38" xr:uid="{59010602-ADFF-4AB5-AB70-E6A745B48B47}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I38">
-    <sortCondition ref="A1:A38"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC80ADF7-34E3-431F-BF69-33CB8D66322E}" name="Table1" displayName="Table1" ref="A1:I38" totalsRowShown="0">
+  <autoFilter ref="A1:I38" xr:uid="{BC80ADF7-34E3-431F-BF69-33CB8D66322E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{54E67DDB-7B36-4778-91A6-29BDADC4DE7E}" name="Imprint" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D918320A-5D8E-4FF8-9673-AD4177BA144C}" name="ISSN Electronic" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A8671448-9733-41BC-BFCF-D83199A39F3D}" name="ISSN Print" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8AD371CF-BDAD-49DB-94C6-5D9F907FA1A9}" name="Journal Name" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5723F6F3-A3A3-4FFF-A6BC-5ACE6F6427C2}" name="JournalURL" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{988083C6-4D19-4C7C-B1E2-962B8C5A35C4}" name="Publishing model" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{CC2EAF2B-2193-4A33-9C70-EA4C87E4D84B}" name="CC License options"/>
-    <tableColumn id="8" xr3:uid="{5C86C4DE-47FB-45E3-B301-F860744D8E44}" name="filnamn"/>
-    <tableColumn id="9" xr3:uid="{44001268-86D6-4E24-9677-83AE2DE262F8}" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B7C83DE2-5EB5-4CB0-A8E2-9520F76A37BD}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{C61DFF08-CF02-4A4A-8D0E-1AB0DB3845FB}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{4549DBE2-6A60-4FDA-A5D9-19E57D9ED16C}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{B4BFDF52-851D-4B8F-9A93-932F53760652}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{17A8520A-237D-4331-9187-EC7EEBB40648}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{496DC438-00CE-4CBC-BC24-6060D42046A9}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{CF399C60-9AA5-40DC-9626-4AAEF2BF5FEE}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{772258CD-1CAD-4514-AA53-D00198021FDF}" name="filnamn"/>
+    <tableColumn id="9" xr3:uid="{4208B0E9-EBAC-43D8-952D-71CABB6E1702}" name="Kommentar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1095,11 +806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEEF421-A7BC-4E8E-9830-EC02A7CE60A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B66FA4-0D08-4859-A244-050574087213}">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +819,7 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -1116,1056 +827,1003 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
+      <c r="D34" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>127</v>
       </c>
       <c r="H37" t="s">
         <v>128</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" t="s">
         <v>127</v>
       </c>
       <c r="H38" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_008_6mar2023.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_008_6mar2023.xlsx
@@ -810,7 +810,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_008_6mar2023.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_008_6mar2023.xlsx
@@ -810,7 +810,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
